--- a/Advanced Excel For Data Analytics/Day5 Conditional Formating.xlsx
+++ b/Advanced Excel For Data Analytics/Day5 Conditional Formating.xlsx
@@ -8,14 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Excel-For-Data-Analysis\Advanced Excel For Data Analytics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA44930D-EA96-4A85-B404-F302114E244C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A672FB1B-856D-4553-BAA5-0FD2B7FF3B18}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4107211F-21F5-41E1-8692-AB1211EA90FB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="4" activeTab="8" xr2:uid="{4107211F-21F5-41E1-8692-AB1211EA90FB}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditional Formatting " sheetId="1" r:id="rId1"/>
     <sheet name="A Date Occuring" sheetId="2" r:id="rId2"/>
     <sheet name="Duplicated values formating " sheetId="3" r:id="rId3"/>
+    <sheet name="Formate Entire Row" sheetId="4" r:id="rId4"/>
+    <sheet name="Top Bottom Rules" sheetId="5" r:id="rId5"/>
+    <sheet name="Color Scales" sheetId="6" r:id="rId6"/>
+    <sheet name="Icon Sets" sheetId="7" r:id="rId7"/>
+    <sheet name="Icon Sets Assignments" sheetId="8" r:id="rId8"/>
+    <sheet name="Assignment" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,24 +41,85 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={6FC86E69-446F-441F-A0E8-1226C0271E65}</author>
+    <author>tc={A712ACE4-4522-41FE-8387-A8098ABC689E}</author>
+  </authors>
+  <commentList>
+    <comment ref="L13" authorId="0" shapeId="0" xr:uid="{6FC86E69-446F-441F-A0E8-1226C0271E65}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Direct fucntion
+=AVERAGE(H2:H57)</t>
+      </text>
+    </comment>
+    <comment ref="L14" authorId="1" shapeId="0" xr:uid="{A712ACE4-4522-41FE-8387-A8098ABC689E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =SUM(H2:H57)/COUNT(H2:H57)
+hard code</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>tc={001F87BC-8EF1-4D9F-B7B0-4DE010A3F49C}</author>
+    <author>tc={5CAD2761-67D9-438A-9232-56913803EFA3}</author>
+    <author>tc={847A8B38-4D94-4FEF-ABA4-69816100E45E}</author>
+  </authors>
+  <commentList>
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{001F87BC-8EF1-4D9F-B7B0-4DE010A3F49C}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =PRODUCT(C4,D4)
+to calculate the gross pay</t>
+      </text>
+    </comment>
+    <comment ref="F4" authorId="1" shapeId="0" xr:uid="{5CAD2761-67D9-438A-9232-56913803EFA3}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =E4 *$F$10
+gross pay * tax</t>
+      </text>
+    </comment>
+    <comment ref="G4" authorId="2" shapeId="0" xr:uid="{847A8B38-4D94-4FEF-ABA4-69816100E45E}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    =E4 -F4</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="180">
   <si>
     <t>Ground</t>
   </si>
   <si>
-    <t>Coffee A</t>
-  </si>
-  <si>
     <t>California</t>
   </si>
   <si>
     <t>West</t>
   </si>
   <si>
-    <t>Arabica</t>
-  </si>
-  <si>
     <t>Beans</t>
   </si>
   <si>
@@ -341,14 +408,259 @@
     <t>Madara Uchiha</t>
   </si>
   <si>
-    <t>obito uchiha</t>
+    <t xml:space="preserve">Duplicates </t>
+  </si>
+  <si>
+    <t>Top</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bottom </t>
+  </si>
+  <si>
+    <t>Market Price Avg</t>
+  </si>
+  <si>
+    <t>Below Avg</t>
+  </si>
+  <si>
+    <t>Above Avg</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Delhi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maharashtra </t>
+  </si>
+  <si>
+    <t>Bihar</t>
+  </si>
+  <si>
+    <t>Karnataka</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>April</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>Number1</t>
+  </si>
+  <si>
+    <t>Number2</t>
+  </si>
+  <si>
+    <t>Salary</t>
+  </si>
+  <si>
+    <t>Job Rating</t>
+  </si>
+  <si>
+    <t>Aarav Patel</t>
+  </si>
+  <si>
+    <t>Priya Sharma</t>
+  </si>
+  <si>
+    <t>Raj Singh</t>
+  </si>
+  <si>
+    <t>Neha Gupta</t>
+  </si>
+  <si>
+    <t>Vikram Reddy</t>
+  </si>
+  <si>
+    <t>Ananya Desai</t>
+  </si>
+  <si>
+    <t>Arjun Kumar</t>
+  </si>
+  <si>
+    <t>Divya Rajput</t>
+  </si>
+  <si>
+    <t>Sanjay Mehta</t>
+  </si>
+  <si>
+    <t>Maya Iyer</t>
+  </si>
+  <si>
+    <t>Rahul Sharma</t>
+  </si>
+  <si>
+    <t>Kavita Patel</t>
+  </si>
+  <si>
+    <t>Karan Kapoor</t>
+  </si>
+  <si>
+    <t>Pooja Chatterjee</t>
+  </si>
+  <si>
+    <t>Siddharth Das</t>
+  </si>
+  <si>
+    <t>Tanvi Rao</t>
+  </si>
+  <si>
+    <t>Aditya Sharma</t>
+  </si>
+  <si>
+    <t>Niharika Patel</t>
+  </si>
+  <si>
+    <t>Rohan Gupta</t>
+  </si>
+  <si>
+    <t>Shreya Reddy</t>
+  </si>
+  <si>
+    <t>Arnav Singh</t>
+  </si>
+  <si>
+    <t>Aanya Kumar</t>
+  </si>
+  <si>
+    <t>Yuvraj Mehta</t>
+  </si>
+  <si>
+    <t>Diya Iyer</t>
+  </si>
+  <si>
+    <t>Ankit Kapoor</t>
+  </si>
+  <si>
+    <t>Ishita Chatterjee</t>
+  </si>
+  <si>
+    <t>Vivek Das</t>
+  </si>
+  <si>
+    <t>Ritu Sharma</t>
+  </si>
+  <si>
+    <t>Mohan Gupta</t>
+  </si>
+  <si>
+    <t>Anjali Reddy</t>
+  </si>
+  <si>
+    <t>Both Avg</t>
+  </si>
+  <si>
+    <t>Blue color based on avg values</t>
+  </si>
+  <si>
+    <t>Payroll</t>
+  </si>
+  <si>
+    <t>EMP No</t>
+  </si>
+  <si>
+    <t>EMP Name</t>
+  </si>
+  <si>
+    <t>Net Pay</t>
+  </si>
+  <si>
+    <t>Akatsuki001</t>
+  </si>
+  <si>
+    <t>Akatsuki002</t>
+  </si>
+  <si>
+    <t>Obito</t>
+  </si>
+  <si>
+    <t>Hinata</t>
+  </si>
+  <si>
+    <t>Naruto</t>
+  </si>
+  <si>
+    <t>Rin</t>
+  </si>
+  <si>
+    <t>Sasuke</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hourly Rate </t>
+  </si>
+  <si>
+    <t>AutoFill the Employee Numbers into cells A6:A8.</t>
+  </si>
+  <si>
+    <t>Set the columns width and rows height appropriately.</t>
+  </si>
+  <si>
+    <t>Use warp text and merge cells as desired.</t>
+  </si>
+  <si>
+    <t>Set labels alignment appropriately.</t>
+  </si>
+  <si>
+    <t>Apply borders, gridlines and shading to the table as desired.</t>
+  </si>
+  <si>
+    <t>Format cell B2 to Short Date format.</t>
+  </si>
+  <si>
+    <t>Format cells E4:G8 to include dollar sign with two decimal places.</t>
+  </si>
+  <si>
+    <t>Calculate the Gross Pay for employee</t>
+  </si>
+  <si>
+    <t>Calculate the Professional Tax which is 6% of the Gross Pay</t>
+  </si>
+  <si>
+    <t>Calculate the Net Pay</t>
+  </si>
+  <si>
+    <t>Gross Pay</t>
+  </si>
+  <si>
+    <t>Hour Worked</t>
+  </si>
+  <si>
+    <t>Akatsuki003</t>
+  </si>
+  <si>
+    <t>Akatsuki004</t>
+  </si>
+  <si>
+    <t>Akatsuki005</t>
+  </si>
+  <si>
+    <t>Prof. Tax</t>
+  </si>
+  <si>
+    <t>Tax</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_ &quot;₹&quot;\ * #,##0.00_ ;_ &quot;₹&quot;\ * \-#,##0.00_ ;_ &quot;₹&quot;\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ [$₹-4009]\ * #,##0_ ;_ [$₹-4009]\ * \-#,##0_ ;_ [$₹-4009]\ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="167" formatCode="_-[$$-409]* #,##0.00_ ;_-[$$-409]* \-#,##0.00\ ;_-[$$-409]* &quot;-&quot;??_ ;_-@_ "/>
+  </numFmts>
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,8 +682,59 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="4.9989318521683403E-2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -414,8 +777,48 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -423,13 +826,34 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -440,11 +864,81 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="9" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="1" xfId="6" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="14" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="1" xfId="5" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="4" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="12" borderId="1" xfId="4" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="9" fontId="4" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="7">
+    <cellStyle name="40% - Accent4" xfId="4" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="5" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="6" builtinId="45"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
-  <dxfs count="20">
+  <dxfs count="24">
     <dxf>
       <fill>
         <gradientFill degree="135">
@@ -452,15 +946,100 @@
             <color theme="0"/>
           </stop>
           <stop position="1">
-            <color rgb="FF00B050"/>
+            <color theme="4"/>
           </stop>
         </gradientFill>
       </fill>
     </dxf>
     <dxf>
       <fill>
+        <gradientFill type="path">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <gradientFill degree="135">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color rgb="FFFF0000"/>
+          </stop>
+        </gradientFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
     </dxf>
@@ -471,10 +1050,26 @@
             <color theme="0"/>
           </stop>
           <stop position="1">
-            <color rgb="FF00B050"/>
+            <color theme="9" tint="0.40000610370189521"/>
           </stop>
         </gradientFill>
       </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -496,38 +1091,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <gradientFill degree="135">
-          <stop position="0">
-            <color theme="0"/>
-          </stop>
-          <stop position="1">
-            <color theme="5" tint="0.40000610370189521"/>
-          </stop>
-        </gradientFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -539,14 +1102,21 @@
     </dxf>
     <dxf>
       <fill>
-        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+        <gradientFill degree="135">
           <stop position="0">
             <color theme="0"/>
           </stop>
           <stop position="1">
-            <color theme="4"/>
+            <color rgb="FF00B050"/>
           </stop>
         </gradientFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
       </fill>
     </dxf>
     <dxf>
@@ -585,41 +1155,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -644,10 +1184,32 @@
       </fill>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
         </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <gradientFill type="path" left="0.5" right="0.5" top="0.5" bottom="0.5">
+          <stop position="0">
+            <color theme="0"/>
+          </stop>
+          <stop position="1">
+            <color theme="4"/>
+          </stop>
+        </gradientFill>
       </fill>
     </dxf>
   </dxfs>
@@ -661,6 +1223,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Obito Uchiha" id="{4F6CD5CA-517A-4862-B549-C07B40A60EFE}" userId="053598e7d676b2f0" providerId="Windows Live"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -958,12 +1526,41 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="L13" dT="2024-06-11T17:59:48.22" personId="{4F6CD5CA-517A-4862-B549-C07B40A60EFE}" id="{6FC86E69-446F-441F-A0E8-1226C0271E65}">
+    <text>Direct fucntion
+=AVERAGE(H2:H57)</text>
+  </threadedComment>
+  <threadedComment ref="L14" dT="2024-06-11T17:59:34.40" personId="{4F6CD5CA-517A-4862-B549-C07B40A60EFE}" id="{A712ACE4-4522-41FE-8387-A8098ABC689E}">
+    <text>=SUM(H2:H57)/COUNT(H2:H57)
+hard code</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
+<file path=xl/threadedComments/threadedComment2.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="E4" dT="2024-06-12T09:27:06.05" personId="{4F6CD5CA-517A-4862-B549-C07B40A60EFE}" id="{001F87BC-8EF1-4D9F-B7B0-4DE010A3F49C}">
+    <text>=PRODUCT(C4,D4)
+to calculate the gross pay</text>
+  </threadedComment>
+  <threadedComment ref="F4" dT="2024-06-12T09:29:51.05" personId="{4F6CD5CA-517A-4862-B549-C07B40A60EFE}" id="{5CAD2761-67D9-438A-9232-56913803EFA3}">
+    <text>=E4 *$F$10
+gross pay * tax</text>
+  </threadedComment>
+  <threadedComment ref="G4" dT="2024-06-12T09:31:45.94" personId="{4F6CD5CA-517A-4862-B549-C07B40A60EFE}" id="{847A8B38-4D94-4FEF-ABA4-69816100E45E}">
+    <text>=E4 -F4</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7B0D98C-4CBB-43A8-8223-E0B8957E7768}">
   <dimension ref="A1:J57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H57" sqref="A1:H57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -974,28 +1571,28 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>61</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -1006,13 +1603,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>3</v>
       </c>
       <c r="F2">
         <v>350</v>
@@ -1024,10 +1621,10 @@
         <v>150</v>
       </c>
       <c r="I2" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1035,16 +1632,16 @@
         <v>1002</v>
       </c>
       <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
         <v>5</v>
-      </c>
-      <c r="C3" t="s">
-        <v>65</v>
-      </c>
-      <c r="D3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
       </c>
       <c r="F3">
         <v>350</v>
@@ -1056,10 +1653,10 @@
         <v>200</v>
       </c>
       <c r="I3" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="J3" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1067,16 +1664,16 @@
         <v>1003</v>
       </c>
       <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
         <v>8</v>
-      </c>
-      <c r="C4" t="s">
-        <v>64</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
       <c r="F4">
         <v>200</v>
@@ -1088,10 +1685,10 @@
         <v>250</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -1102,13 +1699,13 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>300</v>
@@ -1120,10 +1717,10 @@
         <v>180</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -1131,16 +1728,16 @@
         <v>1005</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>100</v>
@@ -1157,16 +1754,16 @@
         <v>1006</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>302</v>
@@ -1186,13 +1783,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>310</v>
@@ -1209,16 +1806,16 @@
         <v>1008</v>
       </c>
       <c r="B9" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C9" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>100</v>
@@ -1235,16 +1832,16 @@
         <v>1009</v>
       </c>
       <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
         <v>8</v>
-      </c>
-      <c r="C10" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" t="s">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s">
-        <v>10</v>
       </c>
       <c r="F10">
         <v>340</v>
@@ -1264,13 +1861,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D11" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>280</v>
@@ -1287,16 +1884,16 @@
         <v>1011</v>
       </c>
       <c r="B12" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E12" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>360</v>
@@ -1313,16 +1910,16 @@
         <v>1012</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D13" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E13" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F13">
         <v>500</v>
@@ -1342,13 +1939,13 @@
         <v>0</v>
       </c>
       <c r="C14" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D14" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>250</v>
@@ -1365,16 +1962,16 @@
         <v>1014</v>
       </c>
       <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
         <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" t="s">
-        <v>7</v>
       </c>
       <c r="F15">
         <v>310</v>
@@ -1391,16 +1988,16 @@
         <v>1015</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D16" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F16">
         <v>260</v>
@@ -1420,13 +2017,13 @@
         <v>0</v>
       </c>
       <c r="C17" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D17" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>400</v>
@@ -1443,16 +2040,16 @@
         <v>1017</v>
       </c>
       <c r="B18" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C18" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F18">
         <v>270</v>
@@ -1469,16 +2066,16 @@
         <v>1018</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C19" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E19" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F19">
         <v>230</v>
@@ -1498,13 +2095,13 @@
         <v>0</v>
       </c>
       <c r="C20" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F20">
         <v>340</v>
@@ -1521,16 +2118,16 @@
         <v>1020</v>
       </c>
       <c r="B21" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C21" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D21" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E21" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F21">
         <v>290</v>
@@ -1547,16 +2144,16 @@
         <v>1021</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D22" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E22" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F22">
         <v>260</v>
@@ -1576,13 +2173,13 @@
         <v>0</v>
       </c>
       <c r="C23" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>240</v>
@@ -1599,16 +2196,16 @@
         <v>1023</v>
       </c>
       <c r="B24" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>220</v>
@@ -1625,16 +2222,16 @@
         <v>1024</v>
       </c>
       <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
         <v>8</v>
-      </c>
-      <c r="C25" t="s">
-        <v>67</v>
-      </c>
-      <c r="D25" t="s">
-        <v>31</v>
-      </c>
-      <c r="E25" t="s">
-        <v>10</v>
       </c>
       <c r="F25">
         <v>290</v>
@@ -1654,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="C26" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D26" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>300</v>
@@ -1677,16 +2274,16 @@
         <v>1026</v>
       </c>
       <c r="B27" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>350</v>
@@ -1703,16 +2300,16 @@
         <v>1027</v>
       </c>
       <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
         <v>8</v>
-      </c>
-      <c r="C28" t="s">
-        <v>70</v>
-      </c>
-      <c r="D28" t="s">
-        <v>34</v>
-      </c>
-      <c r="E28" t="s">
-        <v>10</v>
       </c>
       <c r="F28">
         <v>310</v>
@@ -1732,13 +2329,13 @@
         <v>0</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D29" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E29" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>290</v>
@@ -1755,16 +2352,16 @@
         <v>1029</v>
       </c>
       <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
         <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>72</v>
-      </c>
-      <c r="D30" t="s">
-        <v>36</v>
-      </c>
-      <c r="E30" t="s">
-        <v>7</v>
       </c>
       <c r="F30">
         <v>320</v>
@@ -1781,16 +2378,16 @@
         <v>1030</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C31" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D31" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E31" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31">
         <v>280</v>
@@ -1810,13 +2407,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>270</v>
@@ -1833,16 +2430,16 @@
         <v>1032</v>
       </c>
       <c r="B33" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D33" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33">
         <v>260</v>
@@ -1859,16 +2456,16 @@
         <v>1033</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D34" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>250</v>
@@ -1888,13 +2485,13 @@
         <v>0</v>
       </c>
       <c r="C35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E35" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35">
         <v>290</v>
@@ -1911,16 +2508,16 @@
         <v>1035</v>
       </c>
       <c r="B36" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E36" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F36">
         <v>300</v>
@@ -1937,16 +2534,16 @@
         <v>1036</v>
       </c>
       <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
         <v>8</v>
-      </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
-      <c r="D37" t="s">
-        <v>43</v>
-      </c>
-      <c r="E37" t="s">
-        <v>10</v>
       </c>
       <c r="F37">
         <v>280</v>
@@ -1966,13 +2563,13 @@
         <v>0</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E38" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38">
         <v>310</v>
@@ -1989,16 +2586,16 @@
         <v>1038</v>
       </c>
       <c r="B39" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C39" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D39" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E39" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F39">
         <v>330</v>
@@ -2015,16 +2612,16 @@
         <v>1039</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C40" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40">
         <v>240</v>
@@ -2044,13 +2641,13 @@
         <v>0</v>
       </c>
       <c r="C41" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D41" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>320</v>
@@ -2067,16 +2664,16 @@
         <v>1041</v>
       </c>
       <c r="B42" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D42" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E42" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>270</v>
@@ -2093,16 +2690,16 @@
         <v>1042</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D43" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E43" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43">
         <v>250</v>
@@ -2122,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D44" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E44" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F44">
         <v>280</v>
@@ -2145,16 +2742,16 @@
         <v>1044</v>
       </c>
       <c r="B45" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C45" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D45" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E45" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F45">
         <v>290</v>
@@ -2171,16 +2768,16 @@
         <v>1045</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D46" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F46">
         <v>240</v>
@@ -2200,13 +2797,13 @@
         <v>0</v>
       </c>
       <c r="C47" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E47" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F47">
         <v>300</v>
@@ -2223,16 +2820,16 @@
         <v>1047</v>
       </c>
       <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
         <v>5</v>
-      </c>
-      <c r="C48" t="s">
-        <v>70</v>
-      </c>
-      <c r="D48" t="s">
-        <v>54</v>
-      </c>
-      <c r="E48" t="s">
-        <v>7</v>
       </c>
       <c r="F48">
         <v>310</v>
@@ -2249,16 +2846,16 @@
         <v>1048</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C49" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D49" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E49" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F49">
         <v>260</v>
@@ -2278,13 +2875,13 @@
         <v>0</v>
       </c>
       <c r="C50" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E50" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50">
         <v>290</v>
@@ -2301,16 +2898,16 @@
         <v>1050</v>
       </c>
       <c r="B51" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C51" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D51" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F51">
         <v>280</v>
@@ -2327,16 +2924,16 @@
         <v>1051</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D52" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E52" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F52">
         <v>300</v>
@@ -2356,13 +2953,13 @@
         <v>0</v>
       </c>
       <c r="C53" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53">
         <v>310</v>
@@ -2379,16 +2976,16 @@
         <v>1053</v>
       </c>
       <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
         <v>5</v>
-      </c>
-      <c r="C54" t="s">
-        <v>66</v>
-      </c>
-      <c r="D54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E54" t="s">
-        <v>7</v>
       </c>
       <c r="F54">
         <v>250</v>
@@ -2405,16 +3002,16 @@
         <v>1054</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C55" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D55" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E55" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F55">
         <v>270</v>
@@ -2434,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C56" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D56" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="F56">
         <v>320</v>
@@ -2457,16 +3054,16 @@
         <v>1056</v>
       </c>
       <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
         <v>5</v>
-      </c>
-      <c r="C57" t="s">
-        <v>69</v>
-      </c>
-      <c r="D57" t="s">
-        <v>53</v>
-      </c>
-      <c r="E57" t="s">
-        <v>7</v>
       </c>
       <c r="F57">
         <v>240</v>
@@ -2479,52 +3076,44 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C2:C57">
+    <cfRule type="containsText" dxfId="23" priority="1" operator="containsText" text="Coffee">
+      <formula>NOT(ISERROR(SEARCH("Coffee",C2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="F2:F57">
-    <cfRule type="cellIs" dxfId="19" priority="6" operator="between">
+    <cfRule type="cellIs" dxfId="22" priority="6" operator="between">
       <formula>280</formula>
       <formula>310</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="9" operator="lessThan">
+    <cfRule type="cellIs" dxfId="21" priority="8" operator="greaterThan">
       <formula>300</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="17" priority="10" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="20" priority="9" operator="lessThan">
+      <formula>300</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="19" priority="10" operator="greaterThan">
       <formula>350</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="greaterThan">
-      <formula>350</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="15" priority="14" operator="greaterThan">
-      <formula>350</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="15" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="18" priority="15" operator="greaterThan">
       <formula>350</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F2:F57">
-    <cfRule type="cellIs" dxfId="13" priority="8" operator="greaterThan">
-      <formula>300</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="F3:F57">
-    <cfRule type="cellIs" dxfId="12" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="17" priority="7" operator="lessThan">
       <formula>301</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G2:G57">
-    <cfRule type="cellIs" dxfId="11" priority="4" operator="between">
+    <cfRule type="cellIs" dxfId="16" priority="4" operator="between">
       <formula>300</formula>
       <formula>500</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I5">
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="between">
+    <cfRule type="cellIs" dxfId="15" priority="2" operator="between">
       <formula>300</formula>
       <formula>500</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C57">
-    <cfRule type="containsText" dxfId="9" priority="1" operator="containsText" text="Coffee">
-      <formula>NOT(ISERROR(SEARCH("Coffee",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2537,7 +3126,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C7" sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2549,35 +3138,35 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C1" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C2" s="8">
         <v>45444</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C3" s="8">
         <v>45445</v>
@@ -2585,10 +3174,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C4" s="8">
         <v>45453</v>
@@ -2596,10 +3185,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C5" s="8">
         <v>45454</v>
@@ -2607,10 +3196,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B6" t="s">
         <v>89</v>
-      </c>
-      <c r="B6" t="s">
-        <v>91</v>
       </c>
       <c r="C6" s="8">
         <v>45448</v>
@@ -2633,10 +3222,10 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="timePeriod" dxfId="0" priority="2" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="14" priority="1" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(C1,1)&lt;=6,FLOOR(C1,1)&lt;=TODAY())</formula>
     </cfRule>
-    <cfRule type="timePeriod" dxfId="1" priority="1" timePeriod="last7Days">
+    <cfRule type="timePeriod" dxfId="13" priority="2" timePeriod="last7Days">
       <formula>AND(TODAY()-FLOOR(C1,1)&lt;=6,FLOOR(C1,1)&lt;=TODAY())</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2646,121 +3235,4292 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE0F4BE9-74C6-402F-AFA1-E074ADF495C9}">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.21875" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="2"/>
+    <col min="2" max="2" width="14.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B1" s="7" t="s">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="D3" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>98</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="B6" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="B7" s="2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="B8" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>4</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>3</v>
-      </c>
-      <c r="B8" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>4</v>
-      </c>
-      <c r="B9" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>55</v>
-      </c>
-      <c r="B11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>55</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="2"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2E4EFAC-FADD-4FD4-B079-588DAC6F3843}">
+  <dimension ref="A1:H57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H58" sqref="A1:H58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="17.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>350</v>
+      </c>
+      <c r="G2">
+        <v>400</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>550</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>310</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>340</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>280</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>360</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>250</v>
+      </c>
+      <c r="G14">
+        <v>260</v>
+      </c>
+      <c r="H14">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>310</v>
+      </c>
+      <c r="G15">
+        <v>280</v>
+      </c>
+      <c r="H15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>260</v>
+      </c>
+      <c r="G16">
+        <v>390</v>
+      </c>
+      <c r="H16">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>270</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>230</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>340</v>
+      </c>
+      <c r="G20">
+        <v>125</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>290</v>
+      </c>
+      <c r="G21">
+        <v>420</v>
+      </c>
+      <c r="H21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>260</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>240</v>
+      </c>
+      <c r="G23">
+        <v>350</v>
+      </c>
+      <c r="H23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>220</v>
+      </c>
+      <c r="G24">
+        <v>330</v>
+      </c>
+      <c r="H24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>290</v>
+      </c>
+      <c r="G25">
+        <v>290</v>
+      </c>
+      <c r="H25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>280</v>
+      </c>
+      <c r="H26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>350</v>
+      </c>
+      <c r="G27">
+        <v>499</v>
+      </c>
+      <c r="H27">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>310</v>
+      </c>
+      <c r="G28">
+        <v>430</v>
+      </c>
+      <c r="H28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>290</v>
+      </c>
+      <c r="G29">
+        <v>400</v>
+      </c>
+      <c r="H29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>320</v>
+      </c>
+      <c r="G30">
+        <v>450</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>280</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>270</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>260</v>
+      </c>
+      <c r="G33">
+        <v>350</v>
+      </c>
+      <c r="H33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <v>330</v>
+      </c>
+      <c r="H34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>290</v>
+      </c>
+      <c r="G35">
+        <v>152</v>
+      </c>
+      <c r="H35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+      <c r="G36">
+        <v>190</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>280</v>
+      </c>
+      <c r="G37">
+        <v>370</v>
+      </c>
+      <c r="H37">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>310</v>
+      </c>
+      <c r="G38">
+        <v>450</v>
+      </c>
+      <c r="H38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2500</v>
+      </c>
+      <c r="G39">
+        <v>470</v>
+      </c>
+      <c r="H39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>240</v>
+      </c>
+      <c r="G40">
+        <v>350</v>
+      </c>
+      <c r="H40">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>800</v>
+      </c>
+      <c r="G41">
+        <v>450</v>
+      </c>
+      <c r="H41">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>270</v>
+      </c>
+      <c r="G42">
+        <v>380</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>340</v>
+      </c>
+      <c r="H43">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>280</v>
+      </c>
+      <c r="G44">
+        <v>390</v>
+      </c>
+      <c r="H44">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>290</v>
+      </c>
+      <c r="G45">
+        <v>400</v>
+      </c>
+      <c r="H45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>240</v>
+      </c>
+      <c r="G46">
+        <v>350</v>
+      </c>
+      <c r="H46">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>300</v>
+      </c>
+      <c r="G47">
+        <v>410</v>
+      </c>
+      <c r="H47">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>310</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+      <c r="H48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>260</v>
+      </c>
+      <c r="G49">
+        <v>250</v>
+      </c>
+      <c r="H49">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>290</v>
+      </c>
+      <c r="G50">
+        <v>410</v>
+      </c>
+      <c r="H50">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>280</v>
+      </c>
+      <c r="G51">
+        <v>390</v>
+      </c>
+      <c r="H51">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>300</v>
+      </c>
+      <c r="G52">
+        <v>420</v>
+      </c>
+      <c r="H52">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>310</v>
+      </c>
+      <c r="G53">
+        <v>290</v>
+      </c>
+      <c r="H53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>250</v>
+      </c>
+      <c r="G54">
+        <v>360</v>
+      </c>
+      <c r="H54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>270</v>
+      </c>
+      <c r="G55">
+        <v>254</v>
+      </c>
+      <c r="H55">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>320</v>
+      </c>
+      <c r="G56">
+        <v>440</v>
+      </c>
+      <c r="H56">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>240</v>
+      </c>
+      <c r="G57">
+        <v>350</v>
+      </c>
+      <c r="H57">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A2:H57">
+    <cfRule type="expression" dxfId="9" priority="1">
+      <formula>$F2 &gt;=$G2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11F07454-6AC1-4E77-9DE3-196F6B17E533}">
+  <dimension ref="A1:M57"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="8" width="16.44140625" customWidth="1"/>
+    <col min="9" max="9" width="13.6640625" customWidth="1"/>
+    <col min="10" max="10" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1001</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2">
+        <v>350</v>
+      </c>
+      <c r="G2">
+        <v>400</v>
+      </c>
+      <c r="H2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1002</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3">
+        <v>350</v>
+      </c>
+      <c r="G3">
+        <v>250</v>
+      </c>
+      <c r="H3">
+        <v>200</v>
+      </c>
+      <c r="L3" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="M3" s="11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>1003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
+      </c>
+      <c r="F4">
+        <v>200</v>
+      </c>
+      <c r="G4">
+        <v>500</v>
+      </c>
+      <c r="H4">
+        <v>250</v>
+      </c>
+      <c r="L4" s="12" t="s">
+        <v>101</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>1004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" t="s">
+        <v>65</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5">
+        <v>300</v>
+      </c>
+      <c r="G5">
+        <v>550</v>
+      </c>
+      <c r="H5">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>1005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>350</v>
+      </c>
+      <c r="G6">
+        <v>300</v>
+      </c>
+      <c r="H6">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>1006</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>54</v>
+      </c>
+      <c r="G7">
+        <v>100</v>
+      </c>
+      <c r="H7">
+        <v>230</v>
+      </c>
+      <c r="L7" s="17" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>1007</v>
+      </c>
+      <c r="B8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>68</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F8">
+        <v>310</v>
+      </c>
+      <c r="G8">
+        <v>300</v>
+      </c>
+      <c r="H8">
+        <v>170</v>
+      </c>
+      <c r="L8" s="16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>1008</v>
+      </c>
+      <c r="B9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9">
+        <v>25</v>
+      </c>
+      <c r="G9">
+        <v>100</v>
+      </c>
+      <c r="H9">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>1009</v>
+      </c>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10">
+        <v>340</v>
+      </c>
+      <c r="G10">
+        <v>150</v>
+      </c>
+      <c r="H10">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>1010</v>
+      </c>
+      <c r="B11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D11" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11">
+        <v>280</v>
+      </c>
+      <c r="G11">
+        <v>400</v>
+      </c>
+      <c r="H11">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1011</v>
+      </c>
+      <c r="B12" t="s">
+        <v>3</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>360</v>
+      </c>
+      <c r="G12">
+        <v>100</v>
+      </c>
+      <c r="H12">
+        <v>300</v>
+      </c>
+      <c r="L12" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>1012</v>
+      </c>
+      <c r="B13" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13">
+        <v>500</v>
+      </c>
+      <c r="G13">
+        <v>500</v>
+      </c>
+      <c r="H13">
+        <v>240</v>
+      </c>
+      <c r="L13" s="14">
+        <f>AVERAGE(H2:H57)</f>
+        <v>207.875</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>1013</v>
+      </c>
+      <c r="B14" t="s">
+        <v>0</v>
+      </c>
+      <c r="C14" t="s">
+        <v>62</v>
+      </c>
+      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14">
+        <v>250</v>
+      </c>
+      <c r="G14">
+        <v>260</v>
+      </c>
+      <c r="H14">
+        <v>310</v>
+      </c>
+      <c r="L14" s="14">
+        <f>SUM(H2:H57)/COUNT(H2:H57)</f>
+        <v>207.875</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>1014</v>
+      </c>
+      <c r="B15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E15" t="s">
+        <v>5</v>
+      </c>
+      <c r="F15">
+        <v>310</v>
+      </c>
+      <c r="G15">
+        <v>280</v>
+      </c>
+      <c r="H15">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>1015</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>260</v>
+      </c>
+      <c r="G16">
+        <v>390</v>
+      </c>
+      <c r="H16">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>1016</v>
+      </c>
+      <c r="B17" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E17" t="s">
+        <v>8</v>
+      </c>
+      <c r="F17">
+        <v>400</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>1017</v>
+      </c>
+      <c r="B18" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>270</v>
+      </c>
+      <c r="G18">
+        <v>500</v>
+      </c>
+      <c r="H18">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>1018</v>
+      </c>
+      <c r="B19" t="s">
+        <v>6</v>
+      </c>
+      <c r="C19" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" t="s">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>230</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>1019</v>
+      </c>
+      <c r="B20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>340</v>
+      </c>
+      <c r="G20">
+        <v>125</v>
+      </c>
+      <c r="H20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>1020</v>
+      </c>
+      <c r="B21" t="s">
+        <v>3</v>
+      </c>
+      <c r="C21" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" t="s">
+        <v>25</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>290</v>
+      </c>
+      <c r="G21">
+        <v>420</v>
+      </c>
+      <c r="H21">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>1021</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22" t="s">
+        <v>62</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" t="s">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>260</v>
+      </c>
+      <c r="G22">
+        <v>100</v>
+      </c>
+      <c r="H22">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>1022</v>
+      </c>
+      <c r="B23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" t="s">
+        <v>8</v>
+      </c>
+      <c r="F23">
+        <v>240</v>
+      </c>
+      <c r="G23">
+        <v>350</v>
+      </c>
+      <c r="H23">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>1023</v>
+      </c>
+      <c r="B24" t="s">
+        <v>3</v>
+      </c>
+      <c r="C24" t="s">
+        <v>64</v>
+      </c>
+      <c r="D24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24">
+        <v>220</v>
+      </c>
+      <c r="G24">
+        <v>330</v>
+      </c>
+      <c r="H24">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>1024</v>
+      </c>
+      <c r="B25" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" t="s">
+        <v>65</v>
+      </c>
+      <c r="D25" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25">
+        <v>290</v>
+      </c>
+      <c r="G25">
+        <v>290</v>
+      </c>
+      <c r="H25">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>1025</v>
+      </c>
+      <c r="B26" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" t="s">
+        <v>30</v>
+      </c>
+      <c r="E26" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26">
+        <v>300</v>
+      </c>
+      <c r="G26">
+        <v>280</v>
+      </c>
+      <c r="H26">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" t="s">
+        <v>67</v>
+      </c>
+      <c r="D27" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <v>350</v>
+      </c>
+      <c r="G27">
+        <v>499</v>
+      </c>
+      <c r="H27">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1027</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" t="s">
+        <v>32</v>
+      </c>
+      <c r="E28" t="s">
+        <v>8</v>
+      </c>
+      <c r="F28">
+        <v>310</v>
+      </c>
+      <c r="G28">
+        <v>430</v>
+      </c>
+      <c r="H28">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1028</v>
+      </c>
+      <c r="B29" t="s">
+        <v>0</v>
+      </c>
+      <c r="C29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s">
+        <v>33</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29">
+        <v>290</v>
+      </c>
+      <c r="G29">
+        <v>400</v>
+      </c>
+      <c r="H29">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1029</v>
+      </c>
+      <c r="B30" t="s">
+        <v>3</v>
+      </c>
+      <c r="C30" t="s">
+        <v>70</v>
+      </c>
+      <c r="D30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30">
+        <v>320</v>
+      </c>
+      <c r="G30">
+        <v>450</v>
+      </c>
+      <c r="H30">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>6</v>
+      </c>
+      <c r="C31" t="s">
+        <v>71</v>
+      </c>
+      <c r="D31" t="s">
+        <v>35</v>
+      </c>
+      <c r="E31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F31">
+        <v>280</v>
+      </c>
+      <c r="G31">
+        <v>200</v>
+      </c>
+      <c r="H31">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1031</v>
+      </c>
+      <c r="B32" t="s">
+        <v>0</v>
+      </c>
+      <c r="C32" t="s">
+        <v>62</v>
+      </c>
+      <c r="D32" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32">
+        <v>270</v>
+      </c>
+      <c r="G32">
+        <v>100</v>
+      </c>
+      <c r="H32">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1032</v>
+      </c>
+      <c r="B33" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" t="s">
+        <v>63</v>
+      </c>
+      <c r="D33" t="s">
+        <v>37</v>
+      </c>
+      <c r="E33" t="s">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>260</v>
+      </c>
+      <c r="G33">
+        <v>350</v>
+      </c>
+      <c r="H33">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1033</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" t="s">
+        <v>64</v>
+      </c>
+      <c r="D34" t="s">
+        <v>38</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>250</v>
+      </c>
+      <c r="G34">
+        <v>330</v>
+      </c>
+      <c r="H34">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1034</v>
+      </c>
+      <c r="B35" t="s">
+        <v>0</v>
+      </c>
+      <c r="C35" t="s">
+        <v>65</v>
+      </c>
+      <c r="D35" t="s">
+        <v>39</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>290</v>
+      </c>
+      <c r="G35">
+        <v>152</v>
+      </c>
+      <c r="H35">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>1035</v>
+      </c>
+      <c r="B36" t="s">
+        <v>3</v>
+      </c>
+      <c r="C36" t="s">
+        <v>66</v>
+      </c>
+      <c r="D36" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>300</v>
+      </c>
+      <c r="G36">
+        <v>190</v>
+      </c>
+      <c r="H36">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>1036</v>
+      </c>
+      <c r="B37" t="s">
+        <v>6</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" t="s">
+        <v>41</v>
+      </c>
+      <c r="E37" t="s">
+        <v>8</v>
+      </c>
+      <c r="F37">
+        <v>280</v>
+      </c>
+      <c r="G37">
+        <v>370</v>
+      </c>
+      <c r="H37">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>1037</v>
+      </c>
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C38" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" t="s">
+        <v>42</v>
+      </c>
+      <c r="E38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>310</v>
+      </c>
+      <c r="G38">
+        <v>450</v>
+      </c>
+      <c r="H38">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>1038</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+      <c r="C39" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" t="s">
+        <v>43</v>
+      </c>
+      <c r="E39" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>2500</v>
+      </c>
+      <c r="G39">
+        <v>470</v>
+      </c>
+      <c r="H39">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>1039</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" t="s">
+        <v>44</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>240</v>
+      </c>
+      <c r="G40">
+        <v>350</v>
+      </c>
+      <c r="H40">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>1040</v>
+      </c>
+      <c r="B41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C41" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" t="s">
+        <v>45</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41">
+        <v>800</v>
+      </c>
+      <c r="G41">
+        <v>450</v>
+      </c>
+      <c r="H41">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>1041</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" t="s">
+        <v>62</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42">
+        <v>270</v>
+      </c>
+      <c r="G42">
+        <v>380</v>
+      </c>
+      <c r="H42">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>1042</v>
+      </c>
+      <c r="B43" t="s">
+        <v>6</v>
+      </c>
+      <c r="C43" t="s">
+        <v>63</v>
+      </c>
+      <c r="D43" t="s">
+        <v>47</v>
+      </c>
+      <c r="E43" t="s">
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <v>250</v>
+      </c>
+      <c r="G43">
+        <v>340</v>
+      </c>
+      <c r="H43">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>1043</v>
+      </c>
+      <c r="B44" t="s">
+        <v>0</v>
+      </c>
+      <c r="C44" t="s">
+        <v>64</v>
+      </c>
+      <c r="D44" t="s">
+        <v>48</v>
+      </c>
+      <c r="E44" t="s">
+        <v>5</v>
+      </c>
+      <c r="F44">
+        <v>280</v>
+      </c>
+      <c r="G44">
+        <v>390</v>
+      </c>
+      <c r="H44">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>1044</v>
+      </c>
+      <c r="B45" t="s">
+        <v>3</v>
+      </c>
+      <c r="C45" t="s">
+        <v>65</v>
+      </c>
+      <c r="D45" t="s">
+        <v>49</v>
+      </c>
+      <c r="E45" t="s">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>290</v>
+      </c>
+      <c r="G45">
+        <v>400</v>
+      </c>
+      <c r="H45">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>1045</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" t="s">
+        <v>66</v>
+      </c>
+      <c r="D46" t="s">
+        <v>50</v>
+      </c>
+      <c r="E46" t="s">
+        <v>5</v>
+      </c>
+      <c r="F46">
+        <v>240</v>
+      </c>
+      <c r="G46">
+        <v>350</v>
+      </c>
+      <c r="H46">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>1046</v>
+      </c>
+      <c r="B47" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" t="s">
+        <v>67</v>
+      </c>
+      <c r="D47" t="s">
+        <v>51</v>
+      </c>
+      <c r="E47" t="s">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>300</v>
+      </c>
+      <c r="G47">
+        <v>410</v>
+      </c>
+      <c r="H47">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>1047</v>
+      </c>
+      <c r="B48" t="s">
+        <v>3</v>
+      </c>
+      <c r="C48" t="s">
+        <v>68</v>
+      </c>
+      <c r="D48" t="s">
+        <v>52</v>
+      </c>
+      <c r="E48" t="s">
+        <v>5</v>
+      </c>
+      <c r="F48">
+        <v>310</v>
+      </c>
+      <c r="G48">
+        <v>200</v>
+      </c>
+      <c r="H48">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>1048</v>
+      </c>
+      <c r="B49" t="s">
+        <v>6</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>53</v>
+      </c>
+      <c r="E49" t="s">
+        <v>5</v>
+      </c>
+      <c r="F49">
+        <v>260</v>
+      </c>
+      <c r="G49">
+        <v>250</v>
+      </c>
+      <c r="H49">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>1049</v>
+      </c>
+      <c r="B50" t="s">
+        <v>0</v>
+      </c>
+      <c r="C50" t="s">
+        <v>70</v>
+      </c>
+      <c r="D50" t="s">
+        <v>44</v>
+      </c>
+      <c r="E50" t="s">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>290</v>
+      </c>
+      <c r="G50">
+        <v>410</v>
+      </c>
+      <c r="H50">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>1050</v>
+      </c>
+      <c r="B51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51" t="s">
+        <v>45</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51">
+        <v>280</v>
+      </c>
+      <c r="G51">
+        <v>390</v>
+      </c>
+      <c r="H51">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>1051</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52" t="s">
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>46</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52">
+        <v>300</v>
+      </c>
+      <c r="G52">
+        <v>420</v>
+      </c>
+      <c r="H52">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>1052</v>
+      </c>
+      <c r="B53" t="s">
+        <v>0</v>
+      </c>
+      <c r="C53" t="s">
+        <v>63</v>
+      </c>
+      <c r="D53" t="s">
+        <v>47</v>
+      </c>
+      <c r="E53" t="s">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>310</v>
+      </c>
+      <c r="G53">
+        <v>290</v>
+      </c>
+      <c r="H53">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>1053</v>
+      </c>
+      <c r="B54" t="s">
+        <v>3</v>
+      </c>
+      <c r="C54" t="s">
+        <v>64</v>
+      </c>
+      <c r="D54" t="s">
+        <v>48</v>
+      </c>
+      <c r="E54" t="s">
+        <v>5</v>
+      </c>
+      <c r="F54">
+        <v>250</v>
+      </c>
+      <c r="G54">
+        <v>360</v>
+      </c>
+      <c r="H54">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>1054</v>
+      </c>
+      <c r="B55" t="s">
+        <v>6</v>
+      </c>
+      <c r="C55" t="s">
+        <v>65</v>
+      </c>
+      <c r="D55" t="s">
+        <v>49</v>
+      </c>
+      <c r="E55" t="s">
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <v>270</v>
+      </c>
+      <c r="G55">
+        <v>254</v>
+      </c>
+      <c r="H55">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>1055</v>
+      </c>
+      <c r="B56" t="s">
+        <v>0</v>
+      </c>
+      <c r="C56" t="s">
+        <v>66</v>
+      </c>
+      <c r="D56" t="s">
+        <v>50</v>
+      </c>
+      <c r="E56" t="s">
+        <v>5</v>
+      </c>
+      <c r="F56">
+        <v>320</v>
+      </c>
+      <c r="G56">
+        <v>440</v>
+      </c>
+      <c r="H56">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>1056</v>
+      </c>
+      <c r="B57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C57" t="s">
+        <v>67</v>
+      </c>
+      <c r="D57" t="s">
+        <v>51</v>
+      </c>
+      <c r="E57" t="s">
+        <v>5</v>
+      </c>
+      <c r="F57">
+        <v>240</v>
+      </c>
+      <c r="G57">
+        <v>350</v>
+      </c>
+      <c r="H57">
+        <v>190</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H57">
+    <sortCondition ref="G1:G57"/>
+  </sortState>
+  <conditionalFormatting sqref="F1:F1048576">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{98060A58-09AC-4FD7-AE01-50333C06E608}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G1:G1048576">
+    <cfRule type="dataBar" priority="3">
+      <dataBar showValue="0">
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF63C384"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{080CAB9F-5531-4F72-8535-5A6042BA8229}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H1:H1048576">
+    <cfRule type="aboveAverage" dxfId="8" priority="4" aboveAverage="0"/>
+    <cfRule type="aboveAverage" dxfId="7" priority="5"/>
+    <cfRule type="aboveAverage" dxfId="6" priority="6"/>
+    <cfRule type="top10" dxfId="5" priority="7" percent="1" bottom="1" rank="10"/>
+    <cfRule type="top10" dxfId="4" priority="8" percent="1" rank="10"/>
+    <cfRule type="top10" dxfId="3" priority="9" rank="10"/>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{98060A58-09AC-4FD7-AE01-50333C06E608}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0" direction="leftToRight">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F1:F1048576</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{080CAB9F-5531-4F72-8535-5A6042BA8229}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF63C384"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>G1:G1048576</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84C2B685-83A4-40C2-A581-2B91DD193721}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.88671875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B1" s="23" t="s">
+        <v>105</v>
+      </c>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="B3">
+        <v>44</v>
+      </c>
+      <c r="C3">
+        <v>45</v>
+      </c>
+      <c r="D3">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>15</v>
+      </c>
+      <c r="F3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B4">
+        <v>44</v>
+      </c>
+      <c r="C4">
+        <v>25</v>
+      </c>
+      <c r="D4">
+        <v>26</v>
+      </c>
+      <c r="E4">
+        <v>24</v>
+      </c>
+      <c r="F4">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B5">
+        <v>35</v>
+      </c>
+      <c r="C5">
+        <v>34</v>
+      </c>
+      <c r="D5">
+        <v>25</v>
+      </c>
+      <c r="E5">
+        <v>29</v>
+      </c>
+      <c r="F5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6">
+        <v>24</v>
+      </c>
+      <c r="C6">
+        <v>26</v>
+      </c>
+      <c r="D6">
+        <v>24</v>
+      </c>
+      <c r="E6">
+        <v>28</v>
+      </c>
+      <c r="F6">
+        <v>16</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:F1"/>
+  </mergeCells>
+  <conditionalFormatting sqref="B3:F6">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FF63BE7B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FFF8696B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2414B524-2039-4C43-A7E1-A4D538389324}">
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E1" t="s">
+        <v>115</v>
+      </c>
+      <c r="F1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="E2">
+        <v>10</v>
+      </c>
+      <c r="F2">
+        <v>12</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="K2" s="22">
+        <f>AVERAGE(E2:F9)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
+      </c>
+      <c r="E3">
+        <v>50</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>50</v>
+      </c>
+      <c r="E4">
+        <v>25</v>
+      </c>
+      <c r="F4">
+        <v>21</v>
+      </c>
+      <c r="J4" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>11</v>
+      </c>
+      <c r="B5">
+        <v>70</v>
+      </c>
+      <c r="E5">
+        <v>35</v>
+      </c>
+      <c r="F5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>90</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="F6">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="F7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>60</v>
+      </c>
+      <c r="E8">
+        <v>15</v>
+      </c>
+      <c r="F8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>80</v>
+      </c>
+      <c r="E9">
+        <v>32</v>
+      </c>
+      <c r="F9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J4:L4"/>
+  </mergeCells>
+  <conditionalFormatting sqref="A2:A11">
+    <cfRule type="iconSet" priority="7">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="iconSet" priority="6">
+      <iconSet iconSet="3Symbols">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:E1048576">
+    <cfRule type="expression" dxfId="2" priority="2">
+      <formula>$E2 &gt; $F2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E1:F1048576">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="greaterThanOrEqual">
+      <formula>$K$2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F9">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+      <formula>$E2 &gt;$F2</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D5BAFA8-E3B8-4B21-B686-61A371549477}">
+  <dimension ref="A1:C31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="3" width="13.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B2" s="21">
+        <v>60000</v>
+      </c>
+      <c r="C2" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>120</v>
+      </c>
+      <c r="B3" s="21">
+        <v>55000</v>
+      </c>
+      <c r="C3" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>121</v>
+      </c>
+      <c r="B4" s="21">
+        <v>65000</v>
+      </c>
+      <c r="C4" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>122</v>
+      </c>
+      <c r="B5" s="21">
+        <v>58000</v>
+      </c>
+      <c r="C5" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>123</v>
+      </c>
+      <c r="B6" s="21">
+        <v>62000</v>
+      </c>
+      <c r="C6" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>124</v>
+      </c>
+      <c r="B7" s="21">
+        <v>56000</v>
+      </c>
+      <c r="C7" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>125</v>
+      </c>
+      <c r="B8" s="21">
+        <v>63000</v>
+      </c>
+      <c r="C8" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>126</v>
+      </c>
+      <c r="B9" s="21">
+        <v>57000</v>
+      </c>
+      <c r="C9" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>127</v>
+      </c>
+      <c r="B10" s="21">
+        <v>61000</v>
+      </c>
+      <c r="C10" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="21">
+        <v>59000</v>
+      </c>
+      <c r="C11" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B12" s="21">
+        <v>64000</v>
+      </c>
+      <c r="C12" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>130</v>
+      </c>
+      <c r="B13" s="21">
+        <v>55000</v>
+      </c>
+      <c r="C13" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>131</v>
+      </c>
+      <c r="B14" s="21">
+        <v>66000</v>
+      </c>
+      <c r="C14" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>132</v>
+      </c>
+      <c r="B15" s="21">
+        <v>58000</v>
+      </c>
+      <c r="C15" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>133</v>
+      </c>
+      <c r="B16" s="21">
+        <v>62000</v>
+      </c>
+      <c r="C16" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" s="21">
+        <v>56000</v>
+      </c>
+      <c r="C17" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>135</v>
+      </c>
+      <c r="B18" s="21">
+        <v>63000</v>
+      </c>
+      <c r="C18" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>136</v>
+      </c>
+      <c r="B19" s="21">
+        <v>57000</v>
+      </c>
+      <c r="C19" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B20" s="21">
+        <v>61000</v>
+      </c>
+      <c r="C20" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>138</v>
+      </c>
+      <c r="B21" s="21">
+        <v>59000</v>
+      </c>
+      <c r="C21" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>139</v>
+      </c>
+      <c r="B22" s="21">
+        <v>64000</v>
+      </c>
+      <c r="C22" s="15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>140</v>
+      </c>
+      <c r="B23" s="21">
+        <v>55000</v>
+      </c>
+      <c r="C23" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>141</v>
+      </c>
+      <c r="B24" s="21">
+        <v>66000</v>
+      </c>
+      <c r="C24" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>142</v>
+      </c>
+      <c r="B25" s="21">
+        <v>58000</v>
+      </c>
+      <c r="C25" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>143</v>
+      </c>
+      <c r="B26" s="21">
+        <v>62000</v>
+      </c>
+      <c r="C26" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>144</v>
+      </c>
+      <c r="B27" s="21">
+        <v>56000</v>
+      </c>
+      <c r="C27" s="15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>145</v>
+      </c>
+      <c r="B28" s="21">
+        <v>63000</v>
+      </c>
+      <c r="C28" s="15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" s="21">
+        <v>57000</v>
+      </c>
+      <c r="C29" s="15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>147</v>
+      </c>
+      <c r="B30" s="21">
+        <v>61000</v>
+      </c>
+      <c r="C30" s="15">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>148</v>
+      </c>
+      <c r="B31" s="21">
+        <v>59000</v>
+      </c>
+      <c r="C31" s="15">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="iconSet" priority="1">
+      <iconSet iconSet="5Rating">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="20"/>
+        <cfvo type="percent" val="40"/>
+        <cfvo type="percent" val="60"/>
+        <cfvo type="percent" val="80"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB75A7BE-478C-412E-B45D-876450DFC8BC}">
+  <dimension ref="A1:K22"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G23" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="5" width="12.44140625" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="12.44140625" customWidth="1"/>
+    <col min="10" max="10" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="13.109375" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+    </row>
+    <row r="2" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="B2" s="37">
+        <v>45455</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="28"/>
+    </row>
+    <row r="3" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="30" t="s">
+        <v>152</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>153</v>
+      </c>
+      <c r="C3" s="30" t="s">
+        <v>162</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>174</v>
+      </c>
+      <c r="E3" s="30" t="s">
+        <v>173</v>
+      </c>
+      <c r="F3" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="G3" s="30" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="32" t="s">
+        <v>155</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="C4" s="32">
+        <v>7.5</v>
+      </c>
+      <c r="D4" s="32">
+        <v>35</v>
+      </c>
+      <c r="E4" s="33">
+        <f>PRODUCT(C4,D4)</f>
+        <v>262.5</v>
+      </c>
+      <c r="F4" s="34">
+        <f>E4 *$F$10</f>
+        <v>15.75</v>
+      </c>
+      <c r="G4" s="33">
+        <f>E4 -F4</f>
+        <v>246.75</v>
+      </c>
+      <c r="J4" s="40"/>
+    </row>
+    <row r="5" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>156</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="C5" s="32">
+        <v>8</v>
+      </c>
+      <c r="D5" s="32">
+        <v>30</v>
+      </c>
+      <c r="E5" s="33">
+        <f t="shared" ref="E5:E8" si="0">PRODUCT(C5,D5)</f>
+        <v>240</v>
+      </c>
+      <c r="F5" s="34">
+        <f t="shared" ref="F5:F8" si="1">E5 *$F$10</f>
+        <v>14.399999999999999</v>
+      </c>
+      <c r="G5" s="33">
+        <f t="shared" ref="G5:G8" si="2">E5 -F5</f>
+        <v>225.6</v>
+      </c>
+      <c r="K5" s="41"/>
+    </row>
+    <row r="6" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>159</v>
+      </c>
+      <c r="C6" s="32">
+        <v>6.5</v>
+      </c>
+      <c r="D6" s="32">
+        <v>25</v>
+      </c>
+      <c r="E6" s="33">
+        <f>PRODUCT(C6,D6)</f>
+        <v>162.5</v>
+      </c>
+      <c r="F6" s="34">
+        <f t="shared" si="1"/>
+        <v>9.75</v>
+      </c>
+      <c r="G6" s="33">
+        <f t="shared" si="2"/>
+        <v>152.75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="32" t="s">
+        <v>176</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="32">
+        <v>9</v>
+      </c>
+      <c r="D7" s="32">
+        <v>40</v>
+      </c>
+      <c r="E7" s="33">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+      <c r="F7" s="34">
+        <f t="shared" si="1"/>
+        <v>21.599999999999998</v>
+      </c>
+      <c r="G7" s="33">
+        <f t="shared" si="2"/>
+        <v>338.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>161</v>
+      </c>
+      <c r="C8" s="32">
+        <v>10</v>
+      </c>
+      <c r="D8" s="32">
+        <v>39</v>
+      </c>
+      <c r="E8" s="33">
+        <f t="shared" si="0"/>
+        <v>390</v>
+      </c>
+      <c r="F8" s="34">
+        <f t="shared" si="1"/>
+        <v>23.4</v>
+      </c>
+      <c r="G8" s="33">
+        <f t="shared" si="2"/>
+        <v>366.6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="E10" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="F10" s="39">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>2</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>164</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>3</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>166</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>4</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>165</v>
+      </c>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>5</v>
+      </c>
+      <c r="B16" s="26" t="s">
+        <v>167</v>
+      </c>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="J16" s="18"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>6</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>168</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>7</v>
+      </c>
+      <c r="B18" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="C18" s="26"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>8</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>9</v>
+      </c>
+      <c r="B20" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>10</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="B22" s="25"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+  </mergeCells>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>